--- a/directionalPhase/directionalPhase.xlsx
+++ b/directionalPhase/directionalPhase.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\directionalPhase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BF10B-70AD-4D72-9140-4BD0C53A94EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4DB097-5D0A-4DC2-A0E4-30C11DC8937F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="pattern" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="pattern" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -196,11 +198,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP236"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="AU48" sqref="AR48:AU48"/>
     </sheetView>
   </sheetViews>
@@ -511,50 +513,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="W1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="W1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
@@ -39209,11 +39211,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1284D374-B0D1-43FF-9BB4-D86B8EDDAD2B}">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E2">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="K2">
+        <v>2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>-2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="C11">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="G11">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="J11">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="K11">
+        <v>-2.0943951023932001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9FB6C-8EE2-436D-8EDE-2B5AF3A65403}">
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="C16:J23"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39752,7 +40089,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C8350E-5FD3-4AD5-952E-D118830680D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2C465E-C49C-4830-96BD-C4A8826622B0}">
   <dimension ref="B2:AO63"/>
   <sheetViews>
@@ -45903,12 +46254,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97422B0-59BC-476B-9C9F-0838B1565AB7}">
   <dimension ref="B1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127:K136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45932,642 +46283,642 @@
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="18" t="s">
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="18" t="s">
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="18">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18">
-        <v>2</v>
-      </c>
-      <c r="D14" s="18">
-        <v>4</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="18">
-        <v>3</v>
-      </c>
-      <c r="G14" s="18">
-        <v>2</v>
-      </c>
-      <c r="H14" s="18">
-        <v>4</v>
-      </c>
-      <c r="I14" s="18">
-        <v>2</v>
-      </c>
-      <c r="J14" s="18">
-        <v>3</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="B14" s="17">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>4</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3</v>
+      </c>
+      <c r="K14" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
-        <v>3</v>
-      </c>
-      <c r="C15" s="18">
-        <v>2</v>
-      </c>
-      <c r="D15" s="18">
-        <v>3</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18">
-        <v>3</v>
-      </c>
-      <c r="G15" s="18">
-        <v>2</v>
-      </c>
-      <c r="H15" s="18">
-        <v>3</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18">
-        <v>3</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="B15" s="17">
+        <v>3</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>3</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <v>3</v>
+      </c>
+      <c r="K15" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
-        <v>3</v>
-      </c>
-      <c r="C16" s="18">
-        <v>2</v>
-      </c>
-      <c r="D16" s="18">
-        <v>3</v>
-      </c>
-      <c r="E16" s="18">
-        <v>2</v>
-      </c>
-      <c r="F16" s="18">
-        <v>3</v>
-      </c>
-      <c r="G16" s="18">
-        <v>4</v>
-      </c>
-      <c r="H16" s="18">
-        <v>3</v>
-      </c>
-      <c r="I16" s="18">
-        <v>4</v>
-      </c>
-      <c r="J16" s="18">
-        <v>2</v>
-      </c>
-      <c r="K16" s="18">
+      <c r="B16" s="17">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2</v>
+      </c>
+      <c r="K16" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
-        <v>3</v>
-      </c>
-      <c r="C17" s="18">
-        <v>2</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18">
-        <v>3</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1</v>
-      </c>
-      <c r="K17" s="18">
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="18">
-        <v>4</v>
-      </c>
-      <c r="G18" s="18">
-        <v>4</v>
-      </c>
-      <c r="H18" s="18">
-        <v>4</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="18">
-        <v>4</v>
-      </c>
-      <c r="K18" s="18">
+      <c r="B18" s="17">
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17">
+        <v>4</v>
+      </c>
+      <c r="H18" s="17">
+        <v>4</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2</v>
+      </c>
+      <c r="J18" s="17">
+        <v>4</v>
+      </c>
+      <c r="K18" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
-        <v>3</v>
-      </c>
-      <c r="C19" s="18">
-        <v>2</v>
-      </c>
-      <c r="D19" s="18">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
-      <c r="H19" s="18">
-        <v>3</v>
-      </c>
-      <c r="I19" s="18">
-        <v>2</v>
-      </c>
-      <c r="J19" s="18">
-        <v>3</v>
-      </c>
-      <c r="K19" s="18">
+      <c r="B19" s="17">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2</v>
+      </c>
+      <c r="D19" s="17">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="17">
+        <v>3</v>
+      </c>
+      <c r="I19" s="17">
+        <v>2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>3</v>
+      </c>
+      <c r="K19" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
-        <v>3</v>
-      </c>
-      <c r="C20" s="18">
-        <v>2</v>
-      </c>
-      <c r="D20" s="18">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18">
-        <v>2</v>
-      </c>
-      <c r="F20" s="18">
-        <v>4</v>
-      </c>
-      <c r="G20" s="18">
-        <v>2</v>
-      </c>
-      <c r="H20" s="18">
-        <v>3</v>
-      </c>
-      <c r="I20" s="18">
-        <v>2</v>
-      </c>
-      <c r="J20" s="18">
-        <v>3</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="B20" s="17">
+        <v>3</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17">
+        <v>2</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3</v>
+      </c>
+      <c r="K20" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="18">
-        <v>3</v>
-      </c>
-      <c r="C21" s="18">
-        <v>2</v>
-      </c>
-      <c r="D21" s="18">
-        <v>3</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18">
-        <v>3</v>
-      </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18">
-        <v>3</v>
-      </c>
-      <c r="I21" s="18">
-        <v>2</v>
-      </c>
-      <c r="J21" s="18">
-        <v>3</v>
-      </c>
-      <c r="K21" s="18">
+      <c r="B21" s="17">
+        <v>3</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17">
+        <v>3</v>
+      </c>
+      <c r="G21" s="17">
+        <v>2</v>
+      </c>
+      <c r="H21" s="17">
+        <v>3</v>
+      </c>
+      <c r="I21" s="17">
+        <v>2</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3</v>
+      </c>
+      <c r="K21" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="18">
-        <v>3</v>
-      </c>
-      <c r="C22" s="18">
-        <v>4</v>
-      </c>
-      <c r="D22" s="18">
-        <v>3</v>
-      </c>
-      <c r="E22" s="18">
-        <v>4</v>
-      </c>
-      <c r="F22" s="18">
-        <v>3</v>
-      </c>
-      <c r="G22" s="18">
-        <v>4</v>
-      </c>
-      <c r="H22" s="18">
-        <v>3</v>
-      </c>
-      <c r="I22" s="18">
-        <v>4</v>
-      </c>
-      <c r="J22" s="18">
-        <v>3</v>
-      </c>
-      <c r="K22" s="18">
+      <c r="B22" s="17">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4</v>
+      </c>
+      <c r="D22" s="17">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3</v>
+      </c>
+      <c r="G22" s="17">
+        <v>4</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3</v>
+      </c>
+      <c r="I22" s="17">
+        <v>4</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3</v>
+      </c>
+      <c r="K22" s="17">
         <v>4</v>
       </c>
     </row>
@@ -46586,562 +46937,562 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" s="18" t="s">
+      <c r="B24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="18" t="s">
+      <c r="B25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="18" t="s">
+      <c r="B26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="18" t="s">
+      <c r="B27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="18" t="s">
+      <c r="B28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="18" t="s">
+      <c r="B29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-      <c r="D35" s="18">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>1</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1</v>
-      </c>
-      <c r="H35" s="18">
-        <v>1</v>
-      </c>
-      <c r="I35" s="18">
-        <v>1</v>
-      </c>
-      <c r="J35" s="18">
-        <v>1</v>
-      </c>
-      <c r="K35" s="18">
+      <c r="B35" s="16">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="18">
-        <v>3</v>
-      </c>
-      <c r="C36" s="18">
-        <v>2</v>
-      </c>
-      <c r="D36" s="18">
-        <v>4</v>
-      </c>
-      <c r="E36" s="18">
-        <v>4</v>
-      </c>
-      <c r="F36" s="18">
-        <v>4</v>
-      </c>
-      <c r="G36" s="18">
-        <v>4</v>
-      </c>
-      <c r="H36" s="18">
-        <v>4</v>
-      </c>
-      <c r="I36" s="18">
-        <v>4</v>
-      </c>
-      <c r="J36" s="18">
-        <v>4</v>
-      </c>
-      <c r="K36" s="18">
+      <c r="B36" s="17">
+        <v>3</v>
+      </c>
+      <c r="C36" s="17">
+        <v>2</v>
+      </c>
+      <c r="D36" s="17">
+        <v>4</v>
+      </c>
+      <c r="E36" s="17">
+        <v>4</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4</v>
+      </c>
+      <c r="G36" s="17">
+        <v>4</v>
+      </c>
+      <c r="H36" s="17">
+        <v>4</v>
+      </c>
+      <c r="I36" s="17">
+        <v>4</v>
+      </c>
+      <c r="J36" s="17">
+        <v>4</v>
+      </c>
+      <c r="K36" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="18">
-        <v>3</v>
-      </c>
-      <c r="C37" s="18">
-        <v>1</v>
-      </c>
-      <c r="D37" s="18">
-        <v>1</v>
-      </c>
-      <c r="E37" s="18">
-        <v>1</v>
-      </c>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1</v>
-      </c>
-      <c r="H37" s="18">
-        <v>1</v>
-      </c>
-      <c r="I37" s="18">
-        <v>1</v>
-      </c>
-      <c r="J37" s="18">
-        <v>1</v>
-      </c>
-      <c r="K37" s="18">
+      <c r="B37" s="17">
+        <v>3</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="18">
-        <v>3</v>
-      </c>
-      <c r="C38" s="18">
-        <v>2</v>
-      </c>
-      <c r="D38" s="18">
-        <v>4</v>
-      </c>
-      <c r="E38" s="18">
-        <v>4</v>
-      </c>
-      <c r="F38" s="18">
-        <v>4</v>
-      </c>
-      <c r="G38" s="18">
-        <v>4</v>
-      </c>
-      <c r="H38" s="18">
-        <v>4</v>
-      </c>
-      <c r="I38" s="18">
-        <v>4</v>
-      </c>
-      <c r="J38" s="18">
-        <v>4</v>
-      </c>
-      <c r="K38" s="18">
+      <c r="B38" s="17">
+        <v>3</v>
+      </c>
+      <c r="C38" s="17">
+        <v>2</v>
+      </c>
+      <c r="D38" s="17">
+        <v>4</v>
+      </c>
+      <c r="E38" s="17">
+        <v>4</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4</v>
+      </c>
+      <c r="G38" s="17">
+        <v>4</v>
+      </c>
+      <c r="H38" s="17">
+        <v>4</v>
+      </c>
+      <c r="I38" s="17">
+        <v>4</v>
+      </c>
+      <c r="J38" s="17">
+        <v>4</v>
+      </c>
+      <c r="K38" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="18">
-        <v>3</v>
-      </c>
-      <c r="C39" s="18">
-        <v>1</v>
-      </c>
-      <c r="D39" s="18">
-        <v>1</v>
-      </c>
-      <c r="E39" s="18">
-        <v>1</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1</v>
-      </c>
-      <c r="H39" s="18">
-        <v>1</v>
-      </c>
-      <c r="I39" s="18">
-        <v>1</v>
-      </c>
-      <c r="J39" s="18">
-        <v>1</v>
-      </c>
-      <c r="K39" s="18">
+      <c r="B39" s="17">
+        <v>3</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17">
+        <v>1</v>
+      </c>
+      <c r="K39" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="18">
-        <v>3</v>
-      </c>
-      <c r="C40" s="18">
-        <v>4</v>
-      </c>
-      <c r="D40" s="18">
-        <v>4</v>
-      </c>
-      <c r="E40" s="18">
-        <v>4</v>
-      </c>
-      <c r="F40" s="18">
-        <v>4</v>
-      </c>
-      <c r="G40" s="18">
-        <v>4</v>
-      </c>
-      <c r="H40" s="18">
-        <v>4</v>
-      </c>
-      <c r="I40" s="18">
-        <v>4</v>
-      </c>
-      <c r="J40" s="18">
-        <v>4</v>
-      </c>
-      <c r="K40" s="18">
+      <c r="B40" s="17">
+        <v>3</v>
+      </c>
+      <c r="C40" s="17">
+        <v>4</v>
+      </c>
+      <c r="D40" s="17">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17">
+        <v>4</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4</v>
+      </c>
+      <c r="G40" s="17">
+        <v>4</v>
+      </c>
+      <c r="H40" s="17">
+        <v>4</v>
+      </c>
+      <c r="I40" s="17">
+        <v>4</v>
+      </c>
+      <c r="J40" s="17">
+        <v>4</v>
+      </c>
+      <c r="K40" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="18">
-        <v>0</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18">
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <v>0</v>
-      </c>
-      <c r="K41" s="18">
+      <c r="B41" s="17">
+        <v>0</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="18">
-        <v>0</v>
-      </c>
-      <c r="C42" s="18">
-        <v>0</v>
-      </c>
-      <c r="D42" s="18">
-        <v>0</v>
-      </c>
-      <c r="E42" s="18">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0</v>
-      </c>
-      <c r="I42" s="18">
-        <v>0</v>
-      </c>
-      <c r="J42" s="18">
-        <v>0</v>
-      </c>
-      <c r="K42" s="18">
+      <c r="B42" s="17">
+        <v>0</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="18">
-        <v>0</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0</v>
-      </c>
-      <c r="D43" s="18">
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>0</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="18">
-        <v>0</v>
-      </c>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-      <c r="J43" s="18">
-        <v>0</v>
-      </c>
-      <c r="K43" s="18">
+      <c r="B43" s="17">
+        <v>0</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="18">
-        <v>0</v>
-      </c>
-      <c r="C44" s="18">
-        <v>0</v>
-      </c>
-      <c r="D44" s="18">
-        <v>0</v>
-      </c>
-      <c r="E44" s="18">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <v>0</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
-      <c r="I44" s="18">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
-        <v>0</v>
-      </c>
-      <c r="K44" s="18">
+      <c r="B44" s="17">
+        <v>0</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17">
         <v>0</v>
       </c>
     </row>
@@ -47160,514 +47511,514 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="B47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="B48" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="B49" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="B50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="B51" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="B52" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="17">
-        <v>1</v>
-      </c>
-      <c r="C58" s="17">
-        <v>1</v>
-      </c>
-      <c r="D58" s="18">
-        <v>1</v>
-      </c>
-      <c r="E58" s="18">
-        <v>1</v>
-      </c>
-      <c r="F58" s="18">
-        <v>1</v>
-      </c>
-      <c r="G58" s="18">
-        <v>2</v>
-      </c>
-      <c r="H58" s="18">
-        <v>0</v>
-      </c>
-      <c r="I58" s="18">
-        <v>0</v>
-      </c>
-      <c r="J58" s="18">
-        <v>0</v>
-      </c>
-      <c r="K58" s="18">
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+      <c r="C58" s="16">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17">
+        <v>1</v>
+      </c>
+      <c r="F58" s="17">
+        <v>1</v>
+      </c>
+      <c r="G58" s="17">
+        <v>2</v>
+      </c>
+      <c r="H58" s="17">
+        <v>0</v>
+      </c>
+      <c r="I58" s="17">
+        <v>0</v>
+      </c>
+      <c r="J58" s="17">
+        <v>0</v>
+      </c>
+      <c r="K58" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="18">
-        <v>3</v>
-      </c>
-      <c r="C59" s="18">
-        <v>2</v>
-      </c>
-      <c r="D59" s="18">
-        <v>4</v>
-      </c>
-      <c r="E59" s="18">
-        <v>4</v>
-      </c>
-      <c r="F59" s="18">
-        <v>4</v>
-      </c>
-      <c r="G59" s="18">
-        <v>4</v>
-      </c>
-      <c r="H59" s="18">
-        <v>0</v>
-      </c>
-      <c r="I59" s="18">
-        <v>0</v>
-      </c>
-      <c r="J59" s="18">
-        <v>0</v>
-      </c>
-      <c r="K59" s="18">
+      <c r="B59" s="17">
+        <v>3</v>
+      </c>
+      <c r="C59" s="17">
+        <v>2</v>
+      </c>
+      <c r="D59" s="17">
+        <v>4</v>
+      </c>
+      <c r="E59" s="17">
+        <v>4</v>
+      </c>
+      <c r="F59" s="17">
+        <v>4</v>
+      </c>
+      <c r="G59" s="17">
+        <v>4</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17">
+        <v>0</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="18">
-        <v>3</v>
-      </c>
-      <c r="C60" s="18">
-        <v>1</v>
-      </c>
-      <c r="D60" s="18">
-        <v>1</v>
-      </c>
-      <c r="E60" s="18">
-        <v>1</v>
-      </c>
-      <c r="F60" s="18">
-        <v>1</v>
-      </c>
-      <c r="G60" s="18">
-        <v>2</v>
-      </c>
-      <c r="H60" s="18">
-        <v>0</v>
-      </c>
-      <c r="I60" s="18">
-        <v>0</v>
-      </c>
-      <c r="J60" s="18">
-        <v>0</v>
-      </c>
-      <c r="K60" s="18">
+      <c r="B60" s="17">
+        <v>3</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17">
+        <v>1</v>
+      </c>
+      <c r="G60" s="17">
+        <v>2</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17">
+        <v>0</v>
+      </c>
+      <c r="J60" s="17">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="18">
-        <v>3</v>
-      </c>
-      <c r="C61" s="18">
-        <v>2</v>
-      </c>
-      <c r="D61" s="18">
-        <v>4</v>
-      </c>
-      <c r="E61" s="18">
-        <v>4</v>
-      </c>
-      <c r="F61" s="18">
-        <v>4</v>
-      </c>
-      <c r="G61" s="18">
-        <v>4</v>
-      </c>
-      <c r="H61" s="18">
-        <v>0</v>
-      </c>
-      <c r="I61" s="18">
-        <v>0</v>
-      </c>
-      <c r="J61" s="18">
-        <v>0</v>
-      </c>
-      <c r="K61" s="18">
+      <c r="B61" s="17">
+        <v>3</v>
+      </c>
+      <c r="C61" s="17">
+        <v>2</v>
+      </c>
+      <c r="D61" s="17">
+        <v>4</v>
+      </c>
+      <c r="E61" s="17">
+        <v>4</v>
+      </c>
+      <c r="F61" s="17">
+        <v>4</v>
+      </c>
+      <c r="G61" s="17">
+        <v>4</v>
+      </c>
+      <c r="H61" s="17">
+        <v>0</v>
+      </c>
+      <c r="I61" s="17">
+        <v>0</v>
+      </c>
+      <c r="J61" s="17">
+        <v>0</v>
+      </c>
+      <c r="K61" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="18">
-        <v>3</v>
-      </c>
-      <c r="C62" s="18">
-        <v>1</v>
-      </c>
-      <c r="D62" s="18">
-        <v>1</v>
-      </c>
-      <c r="E62" s="18">
-        <v>1</v>
-      </c>
-      <c r="F62" s="18">
-        <v>1</v>
-      </c>
-      <c r="G62" s="18">
-        <v>2</v>
-      </c>
-      <c r="H62" s="18">
-        <v>0</v>
-      </c>
-      <c r="I62" s="18">
-        <v>0</v>
-      </c>
-      <c r="J62" s="18">
-        <v>0</v>
-      </c>
-      <c r="K62" s="18">
+      <c r="B62" s="17">
+        <v>3</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17">
+        <v>2</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
+        <v>0</v>
+      </c>
+      <c r="K62" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="18">
-        <v>3</v>
-      </c>
-      <c r="C63" s="18">
-        <v>4</v>
-      </c>
-      <c r="D63" s="18">
-        <v>4</v>
-      </c>
-      <c r="E63" s="18">
-        <v>4</v>
-      </c>
-      <c r="F63" s="18">
-        <v>4</v>
-      </c>
-      <c r="G63" s="18">
-        <v>4</v>
-      </c>
-      <c r="H63" s="18">
-        <v>0</v>
-      </c>
-      <c r="I63" s="18">
-        <v>0</v>
-      </c>
-      <c r="J63" s="18">
-        <v>0</v>
-      </c>
-      <c r="K63" s="18">
+      <c r="B63" s="17">
+        <v>3</v>
+      </c>
+      <c r="C63" s="17">
+        <v>4</v>
+      </c>
+      <c r="D63" s="17">
+        <v>4</v>
+      </c>
+      <c r="E63" s="17">
+        <v>4</v>
+      </c>
+      <c r="F63" s="17">
+        <v>4</v>
+      </c>
+      <c r="G63" s="17">
+        <v>4</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
+        <v>0</v>
+      </c>
+      <c r="K63" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="18">
-        <v>0</v>
-      </c>
-      <c r="C64" s="18">
-        <v>0</v>
-      </c>
-      <c r="D64" s="18">
-        <v>0</v>
-      </c>
-      <c r="E64" s="18">
-        <v>0</v>
-      </c>
-      <c r="F64" s="18">
-        <v>0</v>
-      </c>
-      <c r="G64" s="18">
-        <v>0</v>
-      </c>
-      <c r="H64" s="18">
-        <v>0</v>
-      </c>
-      <c r="I64" s="18">
-        <v>0</v>
-      </c>
-      <c r="J64" s="18">
-        <v>0</v>
-      </c>
-      <c r="K64" s="18">
+      <c r="B64" s="17">
+        <v>0</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0</v>
+      </c>
+      <c r="D64" s="17">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0</v>
+      </c>
+      <c r="G64" s="17">
+        <v>0</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="18">
-        <v>0</v>
-      </c>
-      <c r="C65" s="18">
-        <v>0</v>
-      </c>
-      <c r="D65" s="18">
-        <v>0</v>
-      </c>
-      <c r="E65" s="18">
-        <v>0</v>
-      </c>
-      <c r="F65" s="18">
-        <v>0</v>
-      </c>
-      <c r="G65" s="18">
-        <v>0</v>
-      </c>
-      <c r="H65" s="18">
-        <v>0</v>
-      </c>
-      <c r="I65" s="18">
-        <v>0</v>
-      </c>
-      <c r="J65" s="18">
-        <v>0</v>
-      </c>
-      <c r="K65" s="18">
+      <c r="B65" s="17">
+        <v>0</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <v>0</v>
+      </c>
+      <c r="F65" s="17">
+        <v>0</v>
+      </c>
+      <c r="G65" s="17">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17">
+        <v>0</v>
+      </c>
+      <c r="I65" s="17">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
+        <v>0</v>
+      </c>
+      <c r="K65" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="18">
-        <v>0</v>
-      </c>
-      <c r="C66" s="18">
-        <v>0</v>
-      </c>
-      <c r="D66" s="18">
-        <v>0</v>
-      </c>
-      <c r="E66" s="18">
-        <v>0</v>
-      </c>
-      <c r="F66" s="18">
-        <v>0</v>
-      </c>
-      <c r="G66" s="18">
-        <v>0</v>
-      </c>
-      <c r="H66" s="18">
-        <v>0</v>
-      </c>
-      <c r="I66" s="18">
-        <v>0</v>
-      </c>
-      <c r="J66" s="18">
-        <v>0</v>
-      </c>
-      <c r="K66" s="18">
+      <c r="B66" s="17">
+        <v>0</v>
+      </c>
+      <c r="C66" s="17">
+        <v>0</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17">
+        <v>0</v>
+      </c>
+      <c r="F66" s="17">
+        <v>0</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0</v>
+      </c>
+      <c r="H66" s="17">
+        <v>0</v>
+      </c>
+      <c r="I66" s="17">
+        <v>0</v>
+      </c>
+      <c r="J66" s="17">
+        <v>0</v>
+      </c>
+      <c r="K66" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="18">
-        <v>0</v>
-      </c>
-      <c r="C67" s="18">
-        <v>0</v>
-      </c>
-      <c r="D67" s="18">
-        <v>0</v>
-      </c>
-      <c r="E67" s="18">
-        <v>0</v>
-      </c>
-      <c r="F67" s="18">
-        <v>0</v>
-      </c>
-      <c r="G67" s="18">
-        <v>0</v>
-      </c>
-      <c r="H67" s="18">
-        <v>0</v>
-      </c>
-      <c r="I67" s="18">
-        <v>0</v>
-      </c>
-      <c r="J67" s="18">
-        <v>0</v>
-      </c>
-      <c r="K67" s="18">
+      <c r="B67" s="17">
+        <v>0</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0</v>
+      </c>
+      <c r="D67" s="17">
+        <v>0</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17">
+        <v>0</v>
+      </c>
+      <c r="K67" s="17">
         <v>0</v>
       </c>
     </row>
@@ -47686,490 +48037,490 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
+      <c r="B71" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
+      <c r="B72" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
+      <c r="B73" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
+      <c r="B74" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
+      <c r="B75" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
+      <c r="B76" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="17">
-        <v>1</v>
-      </c>
-      <c r="C82" s="17">
-        <v>1</v>
-      </c>
-      <c r="D82" s="18">
-        <v>1</v>
-      </c>
-      <c r="E82" s="18">
-        <v>1</v>
-      </c>
-      <c r="F82" s="18">
-        <v>1</v>
-      </c>
-      <c r="G82" s="18">
-        <v>2</v>
-      </c>
-      <c r="H82" s="18">
-        <v>0</v>
-      </c>
-      <c r="I82" s="18">
-        <v>0</v>
-      </c>
-      <c r="J82" s="18">
-        <v>0</v>
-      </c>
-      <c r="K82" s="18">
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1</v>
+      </c>
+      <c r="D82" s="17">
+        <v>1</v>
+      </c>
+      <c r="E82" s="17">
+        <v>1</v>
+      </c>
+      <c r="F82" s="17">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17">
+        <v>2</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0</v>
+      </c>
+      <c r="I82" s="17">
+        <v>0</v>
+      </c>
+      <c r="J82" s="17">
+        <v>0</v>
+      </c>
+      <c r="K82" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="18">
-        <v>3</v>
-      </c>
-      <c r="C83" s="18">
-        <v>0</v>
-      </c>
-      <c r="D83" s="18">
-        <v>0</v>
-      </c>
-      <c r="E83" s="18">
-        <v>0</v>
-      </c>
-      <c r="F83" s="18">
-        <v>2</v>
-      </c>
-      <c r="G83" s="18">
-        <v>4</v>
-      </c>
-      <c r="H83" s="18">
-        <v>0</v>
-      </c>
-      <c r="I83" s="18">
-        <v>0</v>
-      </c>
-      <c r="J83" s="18">
-        <v>0</v>
-      </c>
-      <c r="K83" s="18">
+      <c r="B83" s="17">
+        <v>3</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0</v>
+      </c>
+      <c r="D83" s="17">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
+        <v>2</v>
+      </c>
+      <c r="G83" s="17">
+        <v>4</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17">
+        <v>0</v>
+      </c>
+      <c r="J83" s="17">
+        <v>0</v>
+      </c>
+      <c r="K83" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="18">
-        <v>3</v>
-      </c>
-      <c r="C84" s="18">
-        <v>0</v>
-      </c>
-      <c r="D84" s="18">
-        <v>0</v>
-      </c>
-      <c r="E84" s="18">
-        <v>0</v>
-      </c>
-      <c r="F84" s="18">
-        <v>1</v>
-      </c>
-      <c r="G84" s="18">
-        <v>2</v>
-      </c>
-      <c r="H84" s="18">
-        <v>0</v>
-      </c>
-      <c r="I84" s="18">
-        <v>0</v>
-      </c>
-      <c r="J84" s="18">
-        <v>0</v>
-      </c>
-      <c r="K84" s="18">
+      <c r="B84" s="17">
+        <v>3</v>
+      </c>
+      <c r="C84" s="17">
+        <v>0</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0</v>
+      </c>
+      <c r="E84" s="17">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
+        <v>1</v>
+      </c>
+      <c r="G84" s="17">
+        <v>2</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+      <c r="I84" s="17">
+        <v>0</v>
+      </c>
+      <c r="J84" s="17">
+        <v>0</v>
+      </c>
+      <c r="K84" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B85" s="18">
-        <v>3</v>
-      </c>
-      <c r="C85" s="18">
-        <v>0</v>
-      </c>
-      <c r="D85" s="18">
-        <v>0</v>
-      </c>
-      <c r="E85" s="18">
-        <v>0</v>
-      </c>
-      <c r="F85" s="18">
-        <v>2</v>
-      </c>
-      <c r="G85" s="18">
-        <v>4</v>
-      </c>
-      <c r="H85" s="18">
-        <v>0</v>
-      </c>
-      <c r="I85" s="18">
-        <v>0</v>
-      </c>
-      <c r="J85" s="18">
-        <v>0</v>
-      </c>
-      <c r="K85" s="18">
+      <c r="B85" s="17">
+        <v>3</v>
+      </c>
+      <c r="C85" s="17">
+        <v>0</v>
+      </c>
+      <c r="D85" s="17">
+        <v>0</v>
+      </c>
+      <c r="E85" s="17">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
+        <v>2</v>
+      </c>
+      <c r="G85" s="17">
+        <v>4</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0</v>
+      </c>
+      <c r="I85" s="17">
+        <v>0</v>
+      </c>
+      <c r="J85" s="17">
+        <v>0</v>
+      </c>
+      <c r="K85" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="18">
-        <v>3</v>
-      </c>
-      <c r="C86" s="18">
-        <v>0</v>
-      </c>
-      <c r="D86" s="18">
-        <v>0</v>
-      </c>
-      <c r="E86" s="18">
-        <v>0</v>
-      </c>
-      <c r="F86" s="18">
-        <v>1</v>
-      </c>
-      <c r="G86" s="18">
-        <v>2</v>
-      </c>
-      <c r="H86" s="18">
-        <v>0</v>
-      </c>
-      <c r="I86" s="18">
-        <v>0</v>
-      </c>
-      <c r="J86" s="18">
-        <v>0</v>
-      </c>
-      <c r="K86" s="18">
+      <c r="B86" s="17">
+        <v>3</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+      <c r="D86" s="17">
+        <v>0</v>
+      </c>
+      <c r="E86" s="17">
+        <v>0</v>
+      </c>
+      <c r="F86" s="17">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17">
+        <v>2</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0</v>
+      </c>
+      <c r="I86" s="17">
+        <v>0</v>
+      </c>
+      <c r="J86" s="17">
+        <v>0</v>
+      </c>
+      <c r="K86" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="18">
-        <v>3</v>
-      </c>
-      <c r="C87" s="18">
-        <v>4</v>
-      </c>
-      <c r="D87" s="18">
-        <v>4</v>
-      </c>
-      <c r="E87" s="18">
-        <v>4</v>
-      </c>
-      <c r="F87" s="18">
-        <v>4</v>
-      </c>
-      <c r="G87" s="18">
-        <v>4</v>
-      </c>
-      <c r="H87" s="18">
-        <v>0</v>
-      </c>
-      <c r="I87" s="18">
-        <v>0</v>
-      </c>
-      <c r="J87" s="18">
-        <v>0</v>
-      </c>
-      <c r="K87" s="18">
+      <c r="B87" s="17">
+        <v>3</v>
+      </c>
+      <c r="C87" s="17">
+        <v>4</v>
+      </c>
+      <c r="D87" s="17">
+        <v>4</v>
+      </c>
+      <c r="E87" s="17">
+        <v>4</v>
+      </c>
+      <c r="F87" s="17">
+        <v>4</v>
+      </c>
+      <c r="G87" s="17">
+        <v>4</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="18">
-        <v>0</v>
-      </c>
-      <c r="C88" s="18">
-        <v>0</v>
-      </c>
-      <c r="D88" s="18">
-        <v>0</v>
-      </c>
-      <c r="E88" s="18">
-        <v>0</v>
-      </c>
-      <c r="F88" s="18">
-        <v>0</v>
-      </c>
-      <c r="G88" s="18">
-        <v>0</v>
-      </c>
-      <c r="H88" s="18">
-        <v>0</v>
-      </c>
-      <c r="I88" s="18">
-        <v>0</v>
-      </c>
-      <c r="J88" s="18">
-        <v>0</v>
-      </c>
-      <c r="K88" s="18">
+      <c r="B88" s="17">
+        <v>0</v>
+      </c>
+      <c r="C88" s="17">
+        <v>0</v>
+      </c>
+      <c r="D88" s="17">
+        <v>0</v>
+      </c>
+      <c r="E88" s="17">
+        <v>0</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0</v>
+      </c>
+      <c r="G88" s="17">
+        <v>0</v>
+      </c>
+      <c r="H88" s="17">
+        <v>0</v>
+      </c>
+      <c r="I88" s="17">
+        <v>0</v>
+      </c>
+      <c r="J88" s="17">
+        <v>0</v>
+      </c>
+      <c r="K88" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B89" s="18">
-        <v>0</v>
-      </c>
-      <c r="C89" s="18">
-        <v>0</v>
-      </c>
-      <c r="D89" s="18">
-        <v>0</v>
-      </c>
-      <c r="E89" s="18">
-        <v>0</v>
-      </c>
-      <c r="F89" s="18">
-        <v>0</v>
-      </c>
-      <c r="G89" s="18">
-        <v>0</v>
-      </c>
-      <c r="H89" s="18">
-        <v>0</v>
-      </c>
-      <c r="I89" s="18">
-        <v>0</v>
-      </c>
-      <c r="J89" s="18">
-        <v>0</v>
-      </c>
-      <c r="K89" s="18">
+      <c r="B89" s="17">
+        <v>0</v>
+      </c>
+      <c r="C89" s="17">
+        <v>0</v>
+      </c>
+      <c r="D89" s="17">
+        <v>0</v>
+      </c>
+      <c r="E89" s="17">
+        <v>0</v>
+      </c>
+      <c r="F89" s="17">
+        <v>0</v>
+      </c>
+      <c r="G89" s="17">
+        <v>0</v>
+      </c>
+      <c r="H89" s="17">
+        <v>0</v>
+      </c>
+      <c r="I89" s="17">
+        <v>0</v>
+      </c>
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="18">
-        <v>0</v>
-      </c>
-      <c r="C90" s="18">
-        <v>0</v>
-      </c>
-      <c r="D90" s="18">
-        <v>0</v>
-      </c>
-      <c r="E90" s="18">
-        <v>0</v>
-      </c>
-      <c r="F90" s="18">
-        <v>0</v>
-      </c>
-      <c r="G90" s="18">
-        <v>0</v>
-      </c>
-      <c r="H90" s="18">
-        <v>0</v>
-      </c>
-      <c r="I90" s="18">
-        <v>0</v>
-      </c>
-      <c r="J90" s="18">
-        <v>0</v>
-      </c>
-      <c r="K90" s="18">
+      <c r="B90" s="17">
+        <v>0</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0</v>
+      </c>
+      <c r="G90" s="17">
+        <v>0</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0</v>
+      </c>
+      <c r="I90" s="17">
+        <v>0</v>
+      </c>
+      <c r="J90" s="17">
+        <v>0</v>
+      </c>
+      <c r="K90" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B91" s="18">
-        <v>0</v>
-      </c>
-      <c r="C91" s="18">
-        <v>0</v>
-      </c>
-      <c r="D91" s="18">
-        <v>0</v>
-      </c>
-      <c r="E91" s="18">
-        <v>0</v>
-      </c>
-      <c r="F91" s="18">
-        <v>0</v>
-      </c>
-      <c r="G91" s="18">
-        <v>0</v>
-      </c>
-      <c r="H91" s="18">
-        <v>0</v>
-      </c>
-      <c r="I91" s="18">
-        <v>0</v>
-      </c>
-      <c r="J91" s="18">
-        <v>0</v>
-      </c>
-      <c r="K91" s="18">
+      <c r="B91" s="17">
+        <v>0</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0</v>
+      </c>
+      <c r="E91" s="17">
+        <v>0</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0</v>
+      </c>
+      <c r="G91" s="17">
+        <v>0</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0</v>
+      </c>
+      <c r="I91" s="17">
+        <v>0</v>
+      </c>
+      <c r="J91" s="17">
+        <v>0</v>
+      </c>
+      <c r="K91" s="17">
         <v>0</v>
       </c>
     </row>
@@ -48188,506 +48539,506 @@
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B93" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
+      <c r="B93" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
+      <c r="B94" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
+      <c r="B95" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
+      <c r="B96" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
+      <c r="B97" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
+      <c r="B98" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="17">
-        <v>1</v>
-      </c>
-      <c r="C104" s="17">
-        <v>1</v>
-      </c>
-      <c r="D104" s="18">
-        <v>1</v>
-      </c>
-      <c r="E104" s="18">
-        <v>1</v>
-      </c>
-      <c r="F104" s="18">
-        <v>1</v>
-      </c>
-      <c r="G104" s="18">
-        <v>2</v>
-      </c>
-      <c r="H104" s="18">
-        <v>0</v>
-      </c>
-      <c r="I104" s="18">
-        <v>0</v>
-      </c>
-      <c r="J104" s="18">
-        <v>0</v>
-      </c>
-      <c r="K104" s="18">
+      <c r="B104" s="16">
+        <v>1</v>
+      </c>
+      <c r="C104" s="16">
+        <v>1</v>
+      </c>
+      <c r="D104" s="17">
+        <v>1</v>
+      </c>
+      <c r="E104" s="17">
+        <v>1</v>
+      </c>
+      <c r="F104" s="17">
+        <v>1</v>
+      </c>
+      <c r="G104" s="17">
+        <v>2</v>
+      </c>
+      <c r="H104" s="17">
+        <v>0</v>
+      </c>
+      <c r="I104" s="17">
+        <v>0</v>
+      </c>
+      <c r="J104" s="17">
+        <v>0</v>
+      </c>
+      <c r="K104" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="18">
-        <v>3</v>
-      </c>
-      <c r="C105" s="18">
-        <v>0</v>
-      </c>
-      <c r="D105" s="18">
-        <v>2</v>
-      </c>
-      <c r="E105" s="18">
-        <v>4</v>
-      </c>
-      <c r="F105" s="18">
-        <v>4</v>
-      </c>
-      <c r="G105" s="18">
-        <v>4</v>
-      </c>
-      <c r="H105" s="18">
-        <v>0</v>
-      </c>
-      <c r="I105" s="18">
-        <v>0</v>
-      </c>
-      <c r="J105" s="18">
-        <v>0</v>
-      </c>
-      <c r="K105" s="18">
+      <c r="B105" s="17">
+        <v>3</v>
+      </c>
+      <c r="C105" s="17">
+        <v>0</v>
+      </c>
+      <c r="D105" s="17">
+        <v>2</v>
+      </c>
+      <c r="E105" s="17">
+        <v>4</v>
+      </c>
+      <c r="F105" s="17">
+        <v>4</v>
+      </c>
+      <c r="G105" s="17">
+        <v>4</v>
+      </c>
+      <c r="H105" s="17">
+        <v>0</v>
+      </c>
+      <c r="I105" s="17">
+        <v>0</v>
+      </c>
+      <c r="J105" s="17">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="18">
-        <v>3</v>
-      </c>
-      <c r="C106" s="18">
-        <v>0</v>
-      </c>
-      <c r="D106" s="18">
-        <v>1</v>
-      </c>
-      <c r="E106" s="18">
-        <v>1</v>
-      </c>
-      <c r="F106" s="18">
-        <v>1</v>
-      </c>
-      <c r="G106" s="18">
-        <v>2</v>
-      </c>
-      <c r="H106" s="18">
-        <v>0</v>
-      </c>
-      <c r="I106" s="18">
-        <v>0</v>
-      </c>
-      <c r="J106" s="18">
-        <v>0</v>
-      </c>
-      <c r="K106" s="18">
+      <c r="B106" s="17">
+        <v>3</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0</v>
+      </c>
+      <c r="D106" s="17">
+        <v>1</v>
+      </c>
+      <c r="E106" s="17">
+        <v>1</v>
+      </c>
+      <c r="F106" s="17">
+        <v>1</v>
+      </c>
+      <c r="G106" s="17">
+        <v>2</v>
+      </c>
+      <c r="H106" s="17">
+        <v>0</v>
+      </c>
+      <c r="I106" s="17">
+        <v>0</v>
+      </c>
+      <c r="J106" s="17">
+        <v>0</v>
+      </c>
+      <c r="K106" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="18">
-        <v>3</v>
-      </c>
-      <c r="C107" s="18">
-        <v>0</v>
-      </c>
-      <c r="D107" s="18">
-        <v>2</v>
-      </c>
-      <c r="E107" s="18">
-        <v>4</v>
-      </c>
-      <c r="F107" s="18">
-        <v>4</v>
-      </c>
-      <c r="G107" s="18">
-        <v>4</v>
-      </c>
-      <c r="H107" s="18">
-        <v>0</v>
-      </c>
-      <c r="I107" s="18">
-        <v>0</v>
-      </c>
-      <c r="J107" s="18">
-        <v>0</v>
-      </c>
-      <c r="K107" s="18">
+      <c r="B107" s="17">
+        <v>3</v>
+      </c>
+      <c r="C107" s="17">
+        <v>0</v>
+      </c>
+      <c r="D107" s="17">
+        <v>2</v>
+      </c>
+      <c r="E107" s="17">
+        <v>4</v>
+      </c>
+      <c r="F107" s="17">
+        <v>4</v>
+      </c>
+      <c r="G107" s="17">
+        <v>4</v>
+      </c>
+      <c r="H107" s="17">
+        <v>0</v>
+      </c>
+      <c r="I107" s="17">
+        <v>0</v>
+      </c>
+      <c r="J107" s="17">
+        <v>0</v>
+      </c>
+      <c r="K107" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="18">
-        <v>3</v>
-      </c>
-      <c r="C108" s="18">
-        <v>0</v>
-      </c>
-      <c r="D108" s="18">
-        <v>1</v>
-      </c>
-      <c r="E108" s="18">
-        <v>1</v>
-      </c>
-      <c r="F108" s="18">
-        <v>1</v>
-      </c>
-      <c r="G108" s="18">
-        <v>2</v>
-      </c>
-      <c r="H108" s="18">
-        <v>0</v>
-      </c>
-      <c r="I108" s="18">
-        <v>0</v>
-      </c>
-      <c r="J108" s="18">
-        <v>0</v>
-      </c>
-      <c r="K108" s="18">
+      <c r="B108" s="17">
+        <v>3</v>
+      </c>
+      <c r="C108" s="17">
+        <v>0</v>
+      </c>
+      <c r="D108" s="17">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17">
+        <v>1</v>
+      </c>
+      <c r="F108" s="17">
+        <v>1</v>
+      </c>
+      <c r="G108" s="17">
+        <v>2</v>
+      </c>
+      <c r="H108" s="17">
+        <v>0</v>
+      </c>
+      <c r="I108" s="17">
+        <v>0</v>
+      </c>
+      <c r="J108" s="17">
+        <v>0</v>
+      </c>
+      <c r="K108" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B109" s="18">
-        <v>3</v>
-      </c>
-      <c r="C109" s="18">
-        <v>4</v>
-      </c>
-      <c r="D109" s="18">
-        <v>4</v>
-      </c>
-      <c r="E109" s="18">
-        <v>4</v>
-      </c>
-      <c r="F109" s="18">
-        <v>4</v>
-      </c>
-      <c r="G109" s="18">
-        <v>4</v>
-      </c>
-      <c r="H109" s="18">
-        <v>0</v>
-      </c>
-      <c r="I109" s="18">
-        <v>0</v>
-      </c>
-      <c r="J109" s="18">
-        <v>0</v>
-      </c>
-      <c r="K109" s="18">
+      <c r="B109" s="17">
+        <v>3</v>
+      </c>
+      <c r="C109" s="17">
+        <v>4</v>
+      </c>
+      <c r="D109" s="17">
+        <v>4</v>
+      </c>
+      <c r="E109" s="17">
+        <v>4</v>
+      </c>
+      <c r="F109" s="17">
+        <v>4</v>
+      </c>
+      <c r="G109" s="17">
+        <v>4</v>
+      </c>
+      <c r="H109" s="17">
+        <v>0</v>
+      </c>
+      <c r="I109" s="17">
+        <v>0</v>
+      </c>
+      <c r="J109" s="17">
+        <v>0</v>
+      </c>
+      <c r="K109" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="18">
-        <v>0</v>
-      </c>
-      <c r="C110" s="18">
-        <v>0</v>
-      </c>
-      <c r="D110" s="18">
-        <v>0</v>
-      </c>
-      <c r="E110" s="18">
-        <v>0</v>
-      </c>
-      <c r="F110" s="18">
-        <v>0</v>
-      </c>
-      <c r="G110" s="18">
-        <v>0</v>
-      </c>
-      <c r="H110" s="18">
-        <v>0</v>
-      </c>
-      <c r="I110" s="18">
-        <v>0</v>
-      </c>
-      <c r="J110" s="18">
-        <v>0</v>
-      </c>
-      <c r="K110" s="18">
+      <c r="B110" s="17">
+        <v>0</v>
+      </c>
+      <c r="C110" s="17">
+        <v>0</v>
+      </c>
+      <c r="D110" s="17">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17">
+        <v>0</v>
+      </c>
+      <c r="F110" s="17">
+        <v>0</v>
+      </c>
+      <c r="G110" s="17">
+        <v>0</v>
+      </c>
+      <c r="H110" s="17">
+        <v>0</v>
+      </c>
+      <c r="I110" s="17">
+        <v>0</v>
+      </c>
+      <c r="J110" s="17">
+        <v>0</v>
+      </c>
+      <c r="K110" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="18">
-        <v>0</v>
-      </c>
-      <c r="C111" s="18">
-        <v>0</v>
-      </c>
-      <c r="D111" s="18">
-        <v>0</v>
-      </c>
-      <c r="E111" s="18">
-        <v>0</v>
-      </c>
-      <c r="F111" s="18">
-        <v>0</v>
-      </c>
-      <c r="G111" s="18">
-        <v>0</v>
-      </c>
-      <c r="H111" s="18">
-        <v>0</v>
-      </c>
-      <c r="I111" s="18">
-        <v>0</v>
-      </c>
-      <c r="J111" s="18">
-        <v>0</v>
-      </c>
-      <c r="K111" s="18">
+      <c r="B111" s="17">
+        <v>0</v>
+      </c>
+      <c r="C111" s="17">
+        <v>0</v>
+      </c>
+      <c r="D111" s="17">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0</v>
+      </c>
+      <c r="F111" s="17">
+        <v>0</v>
+      </c>
+      <c r="G111" s="17">
+        <v>0</v>
+      </c>
+      <c r="H111" s="17">
+        <v>0</v>
+      </c>
+      <c r="I111" s="17">
+        <v>0</v>
+      </c>
+      <c r="J111" s="17">
+        <v>0</v>
+      </c>
+      <c r="K111" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="18">
-        <v>0</v>
-      </c>
-      <c r="C112" s="18">
-        <v>0</v>
-      </c>
-      <c r="D112" s="18">
-        <v>0</v>
-      </c>
-      <c r="E112" s="18">
-        <v>0</v>
-      </c>
-      <c r="F112" s="18">
-        <v>0</v>
-      </c>
-      <c r="G112" s="18">
-        <v>0</v>
-      </c>
-      <c r="H112" s="18">
-        <v>0</v>
-      </c>
-      <c r="I112" s="18">
-        <v>0</v>
-      </c>
-      <c r="J112" s="18">
-        <v>0</v>
-      </c>
-      <c r="K112" s="18">
+      <c r="B112" s="17">
+        <v>0</v>
+      </c>
+      <c r="C112" s="17">
+        <v>0</v>
+      </c>
+      <c r="D112" s="17">
+        <v>0</v>
+      </c>
+      <c r="E112" s="17">
+        <v>0</v>
+      </c>
+      <c r="F112" s="17">
+        <v>0</v>
+      </c>
+      <c r="G112" s="17">
+        <v>0</v>
+      </c>
+      <c r="H112" s="17">
+        <v>0</v>
+      </c>
+      <c r="I112" s="17">
+        <v>0</v>
+      </c>
+      <c r="J112" s="17">
+        <v>0</v>
+      </c>
+      <c r="K112" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B113" s="18">
-        <v>0</v>
-      </c>
-      <c r="C113" s="18">
-        <v>0</v>
-      </c>
-      <c r="D113" s="18">
-        <v>0</v>
-      </c>
-      <c r="E113" s="18">
-        <v>0</v>
-      </c>
-      <c r="F113" s="18">
-        <v>0</v>
-      </c>
-      <c r="G113" s="18">
-        <v>0</v>
-      </c>
-      <c r="H113" s="18">
-        <v>0</v>
-      </c>
-      <c r="I113" s="18">
-        <v>0</v>
-      </c>
-      <c r="J113" s="18">
-        <v>0</v>
-      </c>
-      <c r="K113" s="18">
+      <c r="B113" s="17">
+        <v>0</v>
+      </c>
+      <c r="C113" s="17">
+        <v>0</v>
+      </c>
+      <c r="D113" s="17">
+        <v>0</v>
+      </c>
+      <c r="E113" s="17">
+        <v>0</v>
+      </c>
+      <c r="F113" s="17">
+        <v>0</v>
+      </c>
+      <c r="G113" s="17">
+        <v>0</v>
+      </c>
+      <c r="H113" s="17">
+        <v>0</v>
+      </c>
+      <c r="I113" s="17">
+        <v>0</v>
+      </c>
+      <c r="J113" s="17">
+        <v>0</v>
+      </c>
+      <c r="K113" s="17">
         <v>0</v>
       </c>
     </row>
@@ -48706,509 +49057,509 @@
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K116" s="18" t="s">
+      <c r="B116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K116" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B117" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18" t="s">
+      <c r="B117" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B118" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18" t="s">
+      <c r="B118" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B119" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18" t="s">
+      <c r="B119" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B120" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18" t="s">
+      <c r="B120" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B121" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18" t="s">
+      <c r="B121" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B122" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18" t="s">
+      <c r="B122" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B123" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18" t="s">
+      <c r="B123" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B124" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18" t="s">
+      <c r="B124" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B125" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J125" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K125" s="18" t="s">
+      <c r="B125" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K125" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B127" s="17">
-        <v>1</v>
-      </c>
-      <c r="C127" s="17">
-        <v>1</v>
-      </c>
-      <c r="D127" s="18">
-        <v>1</v>
-      </c>
-      <c r="E127" s="18">
-        <v>1</v>
-      </c>
-      <c r="F127" s="17">
-        <v>1</v>
-      </c>
-      <c r="G127" s="17">
-        <v>1</v>
-      </c>
-      <c r="H127" s="17">
-        <v>1</v>
-      </c>
-      <c r="I127" s="17">
-        <v>1</v>
-      </c>
-      <c r="J127" s="17">
-        <v>1</v>
-      </c>
-      <c r="K127" s="18">
+      <c r="B127" s="16">
+        <v>1</v>
+      </c>
+      <c r="C127" s="16">
+        <v>1</v>
+      </c>
+      <c r="D127" s="17">
+        <v>1</v>
+      </c>
+      <c r="E127" s="17">
+        <v>1</v>
+      </c>
+      <c r="F127" s="16">
+        <v>1</v>
+      </c>
+      <c r="G127" s="16">
+        <v>1</v>
+      </c>
+      <c r="H127" s="16">
+        <v>1</v>
+      </c>
+      <c r="I127" s="16">
+        <v>1</v>
+      </c>
+      <c r="J127" s="16">
+        <v>1</v>
+      </c>
+      <c r="K127" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B128" s="18">
-        <v>3</v>
-      </c>
-      <c r="C128" s="18">
-        <v>0</v>
-      </c>
-      <c r="D128" s="18">
-        <v>0</v>
-      </c>
-      <c r="E128" s="18">
-        <v>0</v>
-      </c>
-      <c r="F128" s="18">
-        <v>0</v>
-      </c>
-      <c r="G128" s="18">
-        <v>0</v>
-      </c>
-      <c r="H128" s="18">
-        <v>0</v>
-      </c>
-      <c r="I128" s="18">
-        <v>0</v>
-      </c>
-      <c r="J128" s="18">
-        <v>0</v>
-      </c>
-      <c r="K128" s="18">
+      <c r="B128" s="17">
+        <v>3</v>
+      </c>
+      <c r="C128" s="17">
+        <v>0</v>
+      </c>
+      <c r="D128" s="17">
+        <v>0</v>
+      </c>
+      <c r="E128" s="17">
+        <v>0</v>
+      </c>
+      <c r="F128" s="17">
+        <v>0</v>
+      </c>
+      <c r="G128" s="17">
+        <v>0</v>
+      </c>
+      <c r="H128" s="17">
+        <v>0</v>
+      </c>
+      <c r="I128" s="17">
+        <v>0</v>
+      </c>
+      <c r="J128" s="17">
+        <v>0</v>
+      </c>
+      <c r="K128" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="18">
-        <v>3</v>
-      </c>
-      <c r="C129" s="18">
-        <v>0</v>
-      </c>
-      <c r="D129" s="18">
-        <v>0</v>
-      </c>
-      <c r="E129" s="18">
-        <v>0</v>
-      </c>
-      <c r="F129" s="18">
-        <v>0</v>
-      </c>
-      <c r="G129" s="18">
-        <v>0</v>
-      </c>
-      <c r="H129" s="18">
-        <v>0</v>
-      </c>
-      <c r="I129" s="18">
-        <v>0</v>
-      </c>
-      <c r="J129" s="18">
-        <v>0</v>
-      </c>
-      <c r="K129" s="18">
+      <c r="B129" s="17">
+        <v>3</v>
+      </c>
+      <c r="C129" s="17">
+        <v>0</v>
+      </c>
+      <c r="D129" s="17">
+        <v>0</v>
+      </c>
+      <c r="E129" s="17">
+        <v>0</v>
+      </c>
+      <c r="F129" s="17">
+        <v>0</v>
+      </c>
+      <c r="G129" s="17">
+        <v>0</v>
+      </c>
+      <c r="H129" s="17">
+        <v>0</v>
+      </c>
+      <c r="I129" s="17">
+        <v>0</v>
+      </c>
+      <c r="J129" s="17">
+        <v>0</v>
+      </c>
+      <c r="K129" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="18">
-        <v>3</v>
-      </c>
-      <c r="C130" s="18">
-        <v>0</v>
-      </c>
-      <c r="D130" s="18">
-        <v>0</v>
-      </c>
-      <c r="E130" s="18">
-        <v>0</v>
-      </c>
-      <c r="F130" s="18">
-        <v>0</v>
-      </c>
-      <c r="G130" s="18">
-        <v>0</v>
-      </c>
-      <c r="H130" s="18">
-        <v>0</v>
-      </c>
-      <c r="I130" s="18">
-        <v>0</v>
-      </c>
-      <c r="J130" s="18">
-        <v>0</v>
-      </c>
-      <c r="K130" s="18">
+      <c r="B130" s="17">
+        <v>3</v>
+      </c>
+      <c r="C130" s="17">
+        <v>0</v>
+      </c>
+      <c r="D130" s="17">
+        <v>0</v>
+      </c>
+      <c r="E130" s="17">
+        <v>0</v>
+      </c>
+      <c r="F130" s="17">
+        <v>0</v>
+      </c>
+      <c r="G130" s="17">
+        <v>0</v>
+      </c>
+      <c r="H130" s="17">
+        <v>0</v>
+      </c>
+      <c r="I130" s="17">
+        <v>0</v>
+      </c>
+      <c r="J130" s="17">
+        <v>0</v>
+      </c>
+      <c r="K130" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B131" s="18">
-        <v>3</v>
-      </c>
-      <c r="C131" s="18">
-        <v>0</v>
-      </c>
-      <c r="D131" s="18">
-        <v>0</v>
-      </c>
-      <c r="E131" s="18">
-        <v>0</v>
-      </c>
-      <c r="F131" s="18">
-        <v>0</v>
-      </c>
-      <c r="G131" s="18">
-        <v>0</v>
-      </c>
-      <c r="H131" s="18">
-        <v>0</v>
-      </c>
-      <c r="I131" s="18">
-        <v>0</v>
-      </c>
-      <c r="J131" s="18">
-        <v>0</v>
-      </c>
-      <c r="K131" s="18">
+      <c r="B131" s="17">
+        <v>3</v>
+      </c>
+      <c r="C131" s="17">
+        <v>0</v>
+      </c>
+      <c r="D131" s="17">
+        <v>0</v>
+      </c>
+      <c r="E131" s="17">
+        <v>0</v>
+      </c>
+      <c r="F131" s="17">
+        <v>0</v>
+      </c>
+      <c r="G131" s="17">
+        <v>0</v>
+      </c>
+      <c r="H131" s="17">
+        <v>0</v>
+      </c>
+      <c r="I131" s="17">
+        <v>0</v>
+      </c>
+      <c r="J131" s="17">
+        <v>0</v>
+      </c>
+      <c r="K131" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B132" s="18">
-        <v>3</v>
-      </c>
-      <c r="C132" s="18">
-        <v>0</v>
-      </c>
-      <c r="D132" s="18">
-        <v>0</v>
-      </c>
-      <c r="E132" s="18">
-        <v>0</v>
-      </c>
-      <c r="F132" s="18">
-        <v>0</v>
-      </c>
-      <c r="G132" s="18">
-        <v>0</v>
-      </c>
-      <c r="H132" s="18">
-        <v>0</v>
-      </c>
-      <c r="I132" s="18">
-        <v>0</v>
-      </c>
-      <c r="J132" s="18">
-        <v>0</v>
-      </c>
-      <c r="K132" s="18">
+      <c r="B132" s="17">
+        <v>3</v>
+      </c>
+      <c r="C132" s="17">
+        <v>0</v>
+      </c>
+      <c r="D132" s="17">
+        <v>0</v>
+      </c>
+      <c r="E132" s="17">
+        <v>0</v>
+      </c>
+      <c r="F132" s="17">
+        <v>0</v>
+      </c>
+      <c r="G132" s="17">
+        <v>0</v>
+      </c>
+      <c r="H132" s="17">
+        <v>0</v>
+      </c>
+      <c r="I132" s="17">
+        <v>0</v>
+      </c>
+      <c r="J132" s="17">
+        <v>0</v>
+      </c>
+      <c r="K132" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B133" s="18">
-        <v>3</v>
-      </c>
-      <c r="C133" s="18">
-        <v>0</v>
-      </c>
-      <c r="D133" s="18">
-        <v>0</v>
-      </c>
-      <c r="E133" s="18">
-        <v>0</v>
-      </c>
-      <c r="F133" s="18">
-        <v>0</v>
-      </c>
-      <c r="G133" s="18">
-        <v>0</v>
-      </c>
-      <c r="H133" s="18">
-        <v>0</v>
-      </c>
-      <c r="I133" s="18">
-        <v>0</v>
-      </c>
-      <c r="J133" s="18">
-        <v>0</v>
-      </c>
-      <c r="K133" s="18">
+      <c r="B133" s="17">
+        <v>3</v>
+      </c>
+      <c r="C133" s="17">
+        <v>0</v>
+      </c>
+      <c r="D133" s="17">
+        <v>0</v>
+      </c>
+      <c r="E133" s="17">
+        <v>0</v>
+      </c>
+      <c r="F133" s="17">
+        <v>0</v>
+      </c>
+      <c r="G133" s="17">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17">
+        <v>0</v>
+      </c>
+      <c r="I133" s="17">
+        <v>0</v>
+      </c>
+      <c r="J133" s="17">
+        <v>0</v>
+      </c>
+      <c r="K133" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B134" s="18">
-        <v>3</v>
-      </c>
-      <c r="C134" s="18">
-        <v>0</v>
-      </c>
-      <c r="D134" s="18">
-        <v>0</v>
-      </c>
-      <c r="E134" s="18">
-        <v>0</v>
-      </c>
-      <c r="F134" s="18">
-        <v>0</v>
-      </c>
-      <c r="G134" s="18">
-        <v>0</v>
-      </c>
-      <c r="H134" s="18">
-        <v>0</v>
-      </c>
-      <c r="I134" s="18">
-        <v>0</v>
-      </c>
-      <c r="J134" s="18">
-        <v>0</v>
-      </c>
-      <c r="K134" s="18">
+      <c r="B134" s="17">
+        <v>3</v>
+      </c>
+      <c r="C134" s="17">
+        <v>0</v>
+      </c>
+      <c r="D134" s="17">
+        <v>0</v>
+      </c>
+      <c r="E134" s="17">
+        <v>0</v>
+      </c>
+      <c r="F134" s="17">
+        <v>0</v>
+      </c>
+      <c r="G134" s="17">
+        <v>0</v>
+      </c>
+      <c r="H134" s="17">
+        <v>0</v>
+      </c>
+      <c r="I134" s="17">
+        <v>0</v>
+      </c>
+      <c r="J134" s="17">
+        <v>0</v>
+      </c>
+      <c r="K134" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B135" s="18">
-        <v>3</v>
-      </c>
-      <c r="C135" s="18">
-        <v>0</v>
-      </c>
-      <c r="D135" s="18">
-        <v>0</v>
-      </c>
-      <c r="E135" s="18">
-        <v>0</v>
-      </c>
-      <c r="F135" s="18">
-        <v>0</v>
-      </c>
-      <c r="G135" s="18">
-        <v>0</v>
-      </c>
-      <c r="H135" s="18">
-        <v>0</v>
-      </c>
-      <c r="I135" s="18">
-        <v>0</v>
-      </c>
-      <c r="J135" s="18">
-        <v>0</v>
-      </c>
-      <c r="K135" s="18">
+      <c r="B135" s="17">
+        <v>3</v>
+      </c>
+      <c r="C135" s="17">
+        <v>0</v>
+      </c>
+      <c r="D135" s="17">
+        <v>0</v>
+      </c>
+      <c r="E135" s="17">
+        <v>0</v>
+      </c>
+      <c r="F135" s="17">
+        <v>0</v>
+      </c>
+      <c r="G135" s="17">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17">
+        <v>0</v>
+      </c>
+      <c r="I135" s="17">
+        <v>0</v>
+      </c>
+      <c r="J135" s="17">
+        <v>0</v>
+      </c>
+      <c r="K135" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B136" s="18">
-        <v>3</v>
-      </c>
-      <c r="C136" s="18">
-        <v>4</v>
-      </c>
-      <c r="D136" s="18">
-        <v>4</v>
-      </c>
-      <c r="E136" s="18">
-        <v>4</v>
-      </c>
-      <c r="F136" s="18">
-        <v>4</v>
-      </c>
-      <c r="G136" s="18">
-        <v>4</v>
-      </c>
-      <c r="H136" s="18">
-        <v>4</v>
-      </c>
-      <c r="I136" s="18">
-        <v>4</v>
-      </c>
-      <c r="J136" s="18">
-        <v>4</v>
-      </c>
-      <c r="K136" s="18">
+      <c r="B136" s="17">
+        <v>3</v>
+      </c>
+      <c r="C136" s="17">
+        <v>4</v>
+      </c>
+      <c r="D136" s="17">
+        <v>4</v>
+      </c>
+      <c r="E136" s="17">
+        <v>4</v>
+      </c>
+      <c r="F136" s="17">
+        <v>4</v>
+      </c>
+      <c r="G136" s="17">
+        <v>4</v>
+      </c>
+      <c r="H136" s="17">
+        <v>4</v>
+      </c>
+      <c r="I136" s="17">
+        <v>4</v>
+      </c>
+      <c r="J136" s="17">
+        <v>4</v>
+      </c>
+      <c r="K136" s="17">
         <v>4</v>
       </c>
     </row>
